--- a/Hodographs/src/Analysis.xlsx
+++ b/Hodographs/src/Analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeffr\OneDrive\Documents\USU\2019 Fall\PHYS 4900\Hodographs\Hodographs\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="319" documentId="8_{D24F2739-C2F3-495F-A533-17D8B8F89309}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{136DB22B-95AA-4E41-A601-A87AAC422C2E}"/>
+  <xr:revisionPtr revIDLastSave="337" documentId="8_{D24F2739-C2F3-495F-A533-17D8B8F89309}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{570631DB-23A2-4DD5-AD47-A0EC4A079BEC}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D474068D-4693-43EB-AF06-378B8F8C486E}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
   <si>
     <t>A</t>
   </si>
@@ -88,6 +88,15 @@
   </si>
   <si>
     <t>amplitude</t>
+  </si>
+  <si>
+    <t>T_avg</t>
+  </si>
+  <si>
+    <t>dT/dz</t>
+  </si>
+  <si>
+    <t>avg dT/dz</t>
   </si>
 </sst>
 </file>
@@ -3372,15 +3381,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>157162</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>42862</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3408,16 +3417,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>500062</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>385762</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>195262</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>80962</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3778,10 +3787,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2DF0878-2A6E-40BE-B93D-FC2F259ABF32}">
-  <dimension ref="B3:X27"/>
+  <dimension ref="B3:AE119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3789,7 +3798,7 @@
     <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:31" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>6</v>
       </c>
@@ -3800,7 +3809,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -3861,8 +3870,17 @@
       <c r="X4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="AA4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B5" s="3">
         <v>85</v>
       </c>
@@ -3934,8 +3952,20 @@
         <f>V5-O5</f>
         <v>-2.3211430039874914E-2</v>
       </c>
-    </row>
-    <row r="6" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="AA5">
+        <v>85.125</v>
+      </c>
+      <c r="AB5">
+        <v>193.98</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B6" s="3">
         <v>86</v>
       </c>
@@ -4007,8 +4037,22 @@
         <f>V6-O6</f>
         <v>-0.92205992185909713</v>
       </c>
-    </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="AA6">
+        <v>85.254999999999995</v>
+      </c>
+      <c r="AB6">
+        <v>193.84</v>
+      </c>
+      <c r="AC6">
+        <f>(AB6-AB5)/(AA6-AA5)</f>
+        <v>-1.0769230769230096</v>
+      </c>
+      <c r="AE6">
+        <f>AVERAGE(AC5:AC119)</f>
+        <v>-0.96526405848953767</v>
+      </c>
+    </row>
+    <row r="7" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
         <v>87</v>
       </c>
@@ -4080,8 +4124,18 @@
         <f>V7-O7</f>
         <v>-1.7780975544861506</v>
       </c>
-    </row>
-    <row r="8" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="AA7">
+        <v>85.385000000000005</v>
+      </c>
+      <c r="AB7">
+        <v>193.77</v>
+      </c>
+      <c r="AC7">
+        <f>(AB7-AB6)/(AA7-AA6)</f>
+        <v>-0.53846153846144595</v>
+      </c>
+    </row>
+    <row r="8" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B8" s="3">
         <v>88</v>
       </c>
@@ -4153,8 +4207,18 @@
         <f>V8-O8</f>
         <v>-0.75333421080579377</v>
       </c>
-    </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="AA8">
+        <v>85.515000000000001</v>
+      </c>
+      <c r="AB8">
+        <v>193.76</v>
+      </c>
+      <c r="AC8">
+        <f t="shared" ref="AC8:AC71" si="0">(AB8-AB7)/(AA8-AA7)</f>
+        <v>-7.6923076923228279E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B9" s="3">
         <v>89</v>
       </c>
@@ -4226,8 +4290,18 @@
         <f>V9-O9</f>
         <v>-0.57121799493487835</v>
       </c>
-    </row>
-    <row r="10" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="AA9">
+        <v>85.644000000000005</v>
+      </c>
+      <c r="AB9">
+        <v>193.82</v>
+      </c>
+      <c r="AC9">
+        <f t="shared" si="0"/>
+        <v>0.46511627906976744</v>
+      </c>
+    </row>
+    <row r="10" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>90</v>
       </c>
@@ -4299,8 +4373,18 @@
         <f>V10-O10</f>
         <v>-0.89307407867931254</v>
       </c>
-    </row>
-    <row r="11" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="AA10">
+        <v>85.774000000000001</v>
+      </c>
+      <c r="AB10">
+        <v>193.97</v>
+      </c>
+      <c r="AC10">
+        <f t="shared" si="0"/>
+        <v>1.1538461538462379</v>
+      </c>
+    </row>
+    <row r="11" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <v>91</v>
       </c>
@@ -4372,8 +4456,18 @@
         <f>V11-O11</f>
         <v>1.7934581147099422</v>
       </c>
-    </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="AA11">
+        <v>85.903999999999996</v>
+      </c>
+      <c r="AB11">
+        <v>194.19</v>
+      </c>
+      <c r="AC11">
+        <f t="shared" si="0"/>
+        <v>1.6923076923077427</v>
+      </c>
+    </row>
+    <row r="12" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <v>92</v>
       </c>
@@ -4445,8 +4539,18 @@
         <f>V12-O12</f>
         <v>1.3581323385960991</v>
       </c>
-    </row>
-    <row r="13" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="AA12">
+        <v>86.034000000000006</v>
+      </c>
+      <c r="AB12">
+        <v>194.5</v>
+      </c>
+      <c r="AC12">
+        <f t="shared" si="0"/>
+        <v>2.3846153846152247</v>
+      </c>
+    </row>
+    <row r="13" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <v>93</v>
       </c>
@@ -4518,8 +4622,18 @@
         <f>V13-O13</f>
         <v>0.69221460471727281</v>
       </c>
-    </row>
-    <row r="14" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="AA13">
+        <v>86.164000000000001</v>
+      </c>
+      <c r="AB13">
+        <v>194.89</v>
+      </c>
+      <c r="AC13">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <v>94</v>
       </c>
@@ -4591,8 +4705,18 @@
         <f>V14-O14</f>
         <v>-1.9442746601059633</v>
       </c>
-    </row>
-    <row r="15" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="AA14">
+        <v>86.293000000000006</v>
+      </c>
+      <c r="AB14">
+        <v>195.34</v>
+      </c>
+      <c r="AC14">
+        <f t="shared" si="0"/>
+        <v>3.4883720930232558</v>
+      </c>
+    </row>
+    <row r="15" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <v>95</v>
       </c>
@@ -4664,8 +4788,18 @@
         <f>V15-O15</f>
         <v>-1.5913561957921634</v>
       </c>
-    </row>
-    <row r="16" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="AA15">
+        <v>86.423000000000002</v>
+      </c>
+      <c r="AB15">
+        <v>195.84</v>
+      </c>
+      <c r="AC15">
+        <f t="shared" si="0"/>
+        <v>3.8461538461539808</v>
+      </c>
+    </row>
+    <row r="16" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <v>96</v>
       </c>
@@ -4737,8 +4871,18 @@
         <f>V16-O16</f>
         <v>-1.183592714994826</v>
       </c>
-    </row>
-    <row r="17" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="AA16">
+        <v>86.552999999999997</v>
+      </c>
+      <c r="AB16">
+        <v>196.39</v>
+      </c>
+      <c r="AC16">
+        <f t="shared" si="0"/>
+        <v>4.2307692307692477</v>
+      </c>
+    </row>
+    <row r="17" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <v>97</v>
       </c>
@@ -4810,8 +4954,18 @@
         <f>V17-O17</f>
         <v>1.9710675192707467</v>
       </c>
-    </row>
-    <row r="18" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="AA17">
+        <v>86.683000000000007</v>
+      </c>
+      <c r="AB17">
+        <v>196.98</v>
+      </c>
+      <c r="AC17">
+        <f t="shared" si="0"/>
+        <v>4.5384615384612275</v>
+      </c>
+    </row>
+    <row r="18" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <v>98</v>
       </c>
@@ -4883,8 +5037,18 @@
         <f>V18-O18</f>
         <v>1.7499753207590594</v>
       </c>
-    </row>
-    <row r="19" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="AA18">
+        <v>86.813000000000002</v>
+      </c>
+      <c r="AB18">
+        <v>197.58</v>
+      </c>
+      <c r="AC18">
+        <f t="shared" si="0"/>
+        <v>4.6153846153849516</v>
+      </c>
+    </row>
+    <row r="19" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <v>99</v>
       </c>
@@ -4956,8 +5120,18 @@
         <f>V19-O19</f>
         <v>1.7209681180839445</v>
       </c>
-    </row>
-    <row r="20" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="AA19">
+        <v>86.941999999999993</v>
+      </c>
+      <c r="AB19">
+        <v>198.19</v>
+      </c>
+      <c r="AC19">
+        <f t="shared" si="0"/>
+        <v>4.7286821705428626</v>
+      </c>
+    </row>
+    <row r="20" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B20" s="3">
         <v>100</v>
       </c>
@@ -5029,8 +5203,18 @@
         <f>V20-O20</f>
         <v>2.2772867960619463</v>
       </c>
-    </row>
-    <row r="21" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="AA20">
+        <v>87.072000000000003</v>
+      </c>
+      <c r="AB20">
+        <v>198.79</v>
+      </c>
+      <c r="AC20">
+        <f t="shared" si="0"/>
+        <v>4.6153846153842286</v>
+      </c>
+    </row>
+    <row r="21" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B21" s="3"/>
       <c r="C21" s="4"/>
       <c r="D21" s="3"/>
@@ -5051,8 +5235,18 @@
       <c r="U21" s="3"/>
       <c r="V21" s="3"/>
       <c r="W21" s="3"/>
-    </row>
-    <row r="22" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="AA21">
+        <v>87.201999999999998</v>
+      </c>
+      <c r="AB21">
+        <v>199.38</v>
+      </c>
+      <c r="AC21">
+        <f t="shared" si="0"/>
+        <v>4.5384615384617231</v>
+      </c>
+    </row>
+    <row r="22" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>17</v>
       </c>
@@ -5133,16 +5327,46 @@
         <f>AVERAGE(X5:X20)</f>
         <v>0.11893025315630945</v>
       </c>
-    </row>
-    <row r="23" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="AA22">
+        <v>87.331999999999994</v>
+      </c>
+      <c r="AB22">
+        <v>199.93</v>
+      </c>
+      <c r="AC22">
+        <f t="shared" si="0"/>
+        <v>4.2307692307694662</v>
+      </c>
+    </row>
+    <row r="23" spans="2:29" x14ac:dyDescent="0.25">
       <c r="V23" s="3"/>
       <c r="W23" s="3"/>
-    </row>
-    <row r="24" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="AA23">
+        <v>87.462000000000003</v>
+      </c>
+      <c r="AB23">
+        <v>200.45</v>
+      </c>
+      <c r="AC23">
+        <f t="shared" si="0"/>
+        <v>3.9999999999995626</v>
+      </c>
+    </row>
+    <row r="24" spans="2:29" x14ac:dyDescent="0.25">
       <c r="V24" s="3"/>
       <c r="W24" s="3"/>
-    </row>
-    <row r="25" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="AA24">
+        <v>87.591999999999999</v>
+      </c>
+      <c r="AB24">
+        <v>200.92</v>
+      </c>
+      <c r="AC24">
+        <f t="shared" si="0"/>
+        <v>3.6153846153847331</v>
+      </c>
+    </row>
+    <row r="25" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>12</v>
       </c>
@@ -5155,28 +5379,1162 @@
       </c>
       <c r="V25" s="3"/>
       <c r="W25" s="3"/>
-    </row>
-    <row r="26" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="AA25">
+        <v>87.721000000000004</v>
+      </c>
+      <c r="AB25">
+        <v>201.34</v>
+      </c>
+      <c r="AC25">
+        <f t="shared" si="0"/>
+        <v>3.2558139534883721</v>
+      </c>
+    </row>
+    <row r="26" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C26" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="27" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="AA26">
+        <v>87.850999999999999</v>
+      </c>
+      <c r="AB26">
+        <v>201.72</v>
+      </c>
+      <c r="AC26">
+        <f t="shared" si="0"/>
+        <v>2.9230769230769904</v>
+      </c>
+    </row>
+    <row r="27" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C27" s="3">
         <f>(C26/C25)/3.6</f>
-        <v>0.36752882804244957</v>
+        <v>0.45941103505306191</v>
       </c>
       <c r="D27" t="s">
         <v>9</v>
+      </c>
+      <c r="AA27">
+        <v>87.980999999999995</v>
+      </c>
+      <c r="AB27">
+        <v>202.04</v>
+      </c>
+      <c r="AC27">
+        <f t="shared" si="0"/>
+        <v>2.461538461538495</v>
+      </c>
+    </row>
+    <row r="28" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AA28">
+        <v>88.111000000000004</v>
+      </c>
+      <c r="AB28">
+        <v>202.33</v>
+      </c>
+      <c r="AC28">
+        <f t="shared" si="0"/>
+        <v>2.2307692307692224</v>
+      </c>
+    </row>
+    <row r="29" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AA29">
+        <v>88.241</v>
+      </c>
+      <c r="AB29">
+        <v>202.56</v>
+      </c>
+      <c r="AC29">
+        <f t="shared" si="0"/>
+        <v>1.7692307692307525</v>
+      </c>
+    </row>
+    <row r="30" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AA30">
+        <v>88.37</v>
+      </c>
+      <c r="AB30">
+        <v>202.76</v>
+      </c>
+      <c r="AC30">
+        <f t="shared" si="0"/>
+        <v>1.5503875968990779</v>
+      </c>
+    </row>
+    <row r="31" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AA31">
+        <v>88.5</v>
+      </c>
+      <c r="AB31">
+        <v>202.91</v>
+      </c>
+      <c r="AC31">
+        <f t="shared" si="0"/>
+        <v>1.1538461538462379</v>
+      </c>
+    </row>
+    <row r="32" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AA32">
+        <v>88.63</v>
+      </c>
+      <c r="AB32">
+        <v>203.03</v>
+      </c>
+      <c r="AC32">
+        <f t="shared" si="0"/>
+        <v>0.9230769230769903</v>
+      </c>
+    </row>
+    <row r="33" spans="27:29" x14ac:dyDescent="0.25">
+      <c r="AA33">
+        <v>88.76</v>
+      </c>
+      <c r="AB33">
+        <v>203.11</v>
+      </c>
+      <c r="AC33">
+        <f t="shared" si="0"/>
+        <v>0.61538461538466582</v>
+      </c>
+    </row>
+    <row r="34" spans="27:29" x14ac:dyDescent="0.25">
+      <c r="AA34">
+        <v>88.89</v>
+      </c>
+      <c r="AB34">
+        <v>203.15</v>
+      </c>
+      <c r="AC34">
+        <f t="shared" si="0"/>
+        <v>0.30769230769225725</v>
+      </c>
+    </row>
+    <row r="35" spans="27:29" x14ac:dyDescent="0.25">
+      <c r="AA35">
+        <v>89.02</v>
+      </c>
+      <c r="AB35">
+        <v>203.17</v>
+      </c>
+      <c r="AC35">
+        <f t="shared" si="0"/>
+        <v>0.1538461538460193</v>
+      </c>
+    </row>
+    <row r="36" spans="27:29" x14ac:dyDescent="0.25">
+      <c r="AA36">
+        <v>89.149000000000001</v>
+      </c>
+      <c r="AB36">
+        <v>203.17</v>
+      </c>
+      <c r="AC36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="27:29" x14ac:dyDescent="0.25">
+      <c r="AA37">
+        <v>89.278999999999996</v>
+      </c>
+      <c r="AB37">
+        <v>203.14</v>
+      </c>
+      <c r="AC37">
+        <f t="shared" si="0"/>
+        <v>-0.23076923076924757</v>
+      </c>
+    </row>
+    <row r="38" spans="27:29" x14ac:dyDescent="0.25">
+      <c r="AA38">
+        <v>89.409000000000006</v>
+      </c>
+      <c r="AB38">
+        <v>203.1</v>
+      </c>
+      <c r="AC38">
+        <f t="shared" si="0"/>
+        <v>-0.30769230769222361</v>
+      </c>
+    </row>
+    <row r="39" spans="27:29" x14ac:dyDescent="0.25">
+      <c r="AA39">
+        <v>89.539000000000001</v>
+      </c>
+      <c r="AB39">
+        <v>203.04</v>
+      </c>
+      <c r="AC39">
+        <f t="shared" si="0"/>
+        <v>-0.46153846153849515</v>
+      </c>
+    </row>
+    <row r="40" spans="27:29" x14ac:dyDescent="0.25">
+      <c r="AA40">
+        <v>89.668999999999997</v>
+      </c>
+      <c r="AB40">
+        <v>202.98</v>
+      </c>
+      <c r="AC40">
+        <f t="shared" si="0"/>
+        <v>-0.46153846153849515</v>
+      </c>
+    </row>
+    <row r="41" spans="27:29" x14ac:dyDescent="0.25">
+      <c r="AA41">
+        <v>89.798000000000002</v>
+      </c>
+      <c r="AB41">
+        <v>202.9</v>
+      </c>
+      <c r="AC41">
+        <f t="shared" si="0"/>
+        <v>-0.62015503875954303</v>
+      </c>
+    </row>
+    <row r="42" spans="27:29" x14ac:dyDescent="0.25">
+      <c r="AA42">
+        <v>89.927999999999997</v>
+      </c>
+      <c r="AB42">
+        <v>202.82</v>
+      </c>
+      <c r="AC42">
+        <f t="shared" si="0"/>
+        <v>-0.6153846153847331</v>
+      </c>
+    </row>
+    <row r="43" spans="27:29" x14ac:dyDescent="0.25">
+      <c r="AA43">
+        <v>90.058000000000007</v>
+      </c>
+      <c r="AB43">
+        <v>202.74</v>
+      </c>
+      <c r="AC43">
+        <f t="shared" si="0"/>
+        <v>-0.61538461538444722</v>
+      </c>
+    </row>
+    <row r="44" spans="27:29" x14ac:dyDescent="0.25">
+      <c r="AA44">
+        <v>90.188000000000002</v>
+      </c>
+      <c r="AB44">
+        <v>202.65</v>
+      </c>
+      <c r="AC44">
+        <f t="shared" si="0"/>
+        <v>-0.69230769230774281</v>
+      </c>
+    </row>
+    <row r="45" spans="27:29" x14ac:dyDescent="0.25">
+      <c r="AA45">
+        <v>90.317999999999998</v>
+      </c>
+      <c r="AB45">
+        <v>202.57</v>
+      </c>
+      <c r="AC45">
+        <f t="shared" si="0"/>
+        <v>-0.6153846153847331</v>
+      </c>
+    </row>
+    <row r="46" spans="27:29" x14ac:dyDescent="0.25">
+      <c r="AA46">
+        <v>90.447000000000003</v>
+      </c>
+      <c r="AB46">
+        <v>202.48</v>
+      </c>
+      <c r="AC46">
+        <f t="shared" si="0"/>
+        <v>-0.69767441860465118</v>
+      </c>
+    </row>
+    <row r="47" spans="27:29" x14ac:dyDescent="0.25">
+      <c r="AA47">
+        <v>90.576999999999998</v>
+      </c>
+      <c r="AB47">
+        <v>202.39</v>
+      </c>
+      <c r="AC47">
+        <f t="shared" si="0"/>
+        <v>-0.69230769230774281</v>
+      </c>
+    </row>
+    <row r="48" spans="27:29" x14ac:dyDescent="0.25">
+      <c r="AA48">
+        <v>90.706999999999994</v>
+      </c>
+      <c r="AB48">
+        <v>202.29</v>
+      </c>
+      <c r="AC48">
+        <f t="shared" si="0"/>
+        <v>-0.7692307692307524</v>
+      </c>
+    </row>
+    <row r="49" spans="27:29" x14ac:dyDescent="0.25">
+      <c r="AA49">
+        <v>90.837000000000003</v>
+      </c>
+      <c r="AB49">
+        <v>202.2</v>
+      </c>
+      <c r="AC49">
+        <f t="shared" si="0"/>
+        <v>-0.69230769230766709</v>
+      </c>
+    </row>
+    <row r="50" spans="27:29" x14ac:dyDescent="0.25">
+      <c r="AA50">
+        <v>90.966999999999999</v>
+      </c>
+      <c r="AB50">
+        <v>202.1</v>
+      </c>
+      <c r="AC50">
+        <f t="shared" si="0"/>
+        <v>-0.7692307692307524</v>
+      </c>
+    </row>
+    <row r="51" spans="27:29" x14ac:dyDescent="0.25">
+      <c r="AA51">
+        <v>91.096999999999994</v>
+      </c>
+      <c r="AB51">
+        <v>201.99</v>
+      </c>
+      <c r="AC51">
+        <f t="shared" si="0"/>
+        <v>-0.8461538461537621</v>
+      </c>
+    </row>
+    <row r="52" spans="27:29" x14ac:dyDescent="0.25">
+      <c r="AA52">
+        <v>91.225999999999999</v>
+      </c>
+      <c r="AB52">
+        <v>201.88</v>
+      </c>
+      <c r="AC52">
+        <f t="shared" si="0"/>
+        <v>-0.8527131782946471</v>
+      </c>
+    </row>
+    <row r="53" spans="27:29" x14ac:dyDescent="0.25">
+      <c r="AA53">
+        <v>91.355999999999995</v>
+      </c>
+      <c r="AB53">
+        <v>201.76</v>
+      </c>
+      <c r="AC53">
+        <f t="shared" si="0"/>
+        <v>-0.9230769230769903</v>
+      </c>
+    </row>
+    <row r="54" spans="27:29" x14ac:dyDescent="0.25">
+      <c r="AA54">
+        <v>91.486000000000004</v>
+      </c>
+      <c r="AB54">
+        <v>201.62</v>
+      </c>
+      <c r="AC54">
+        <f t="shared" si="0"/>
+        <v>-1.0769230769228919</v>
+      </c>
+    </row>
+    <row r="55" spans="27:29" x14ac:dyDescent="0.25">
+      <c r="AA55">
+        <v>91.616</v>
+      </c>
+      <c r="AB55">
+        <v>201.47</v>
+      </c>
+      <c r="AC55">
+        <f t="shared" si="0"/>
+        <v>-1.1538461538462379</v>
+      </c>
+    </row>
+    <row r="56" spans="27:29" x14ac:dyDescent="0.25">
+      <c r="AA56">
+        <v>91.745999999999995</v>
+      </c>
+      <c r="AB56">
+        <v>201.31</v>
+      </c>
+      <c r="AC56">
+        <f t="shared" si="0"/>
+        <v>-1.2307692307692475</v>
+      </c>
+    </row>
+    <row r="57" spans="27:29" x14ac:dyDescent="0.25">
+      <c r="AA57">
+        <v>91.875</v>
+      </c>
+      <c r="AB57">
+        <v>201.12</v>
+      </c>
+      <c r="AC57">
+        <f t="shared" si="0"/>
+        <v>-1.47286821705419</v>
+      </c>
+    </row>
+    <row r="58" spans="27:29" x14ac:dyDescent="0.25">
+      <c r="AA58">
+        <v>92.004999999999995</v>
+      </c>
+      <c r="AB58">
+        <v>200.91</v>
+      </c>
+      <c r="AC58">
+        <f t="shared" si="0"/>
+        <v>-1.6153846153847331</v>
+      </c>
+    </row>
+    <row r="59" spans="27:29" x14ac:dyDescent="0.25">
+      <c r="AA59">
+        <v>92.135000000000005</v>
+      </c>
+      <c r="AB59">
+        <v>200.68</v>
+      </c>
+      <c r="AC59">
+        <f t="shared" si="0"/>
+        <v>-1.7692307692305591</v>
+      </c>
+    </row>
+    <row r="60" spans="27:29" x14ac:dyDescent="0.25">
+      <c r="AA60">
+        <v>92.265000000000001</v>
+      </c>
+      <c r="AB60">
+        <v>200.44</v>
+      </c>
+      <c r="AC60">
+        <f t="shared" si="0"/>
+        <v>-1.8461538461539806</v>
+      </c>
+    </row>
+    <row r="61" spans="27:29" x14ac:dyDescent="0.25">
+      <c r="AA61">
+        <v>92.394999999999996</v>
+      </c>
+      <c r="AB61">
+        <v>200.17</v>
+      </c>
+      <c r="AC61">
+        <f t="shared" si="0"/>
+        <v>-2.0769230769232281</v>
+      </c>
+    </row>
+    <row r="62" spans="27:29" x14ac:dyDescent="0.25">
+      <c r="AA62">
+        <v>92.524000000000001</v>
+      </c>
+      <c r="AB62">
+        <v>199.89</v>
+      </c>
+      <c r="AC62">
+        <f t="shared" si="0"/>
+        <v>-2.1705426356588413</v>
+      </c>
+    </row>
+    <row r="63" spans="27:29" x14ac:dyDescent="0.25">
+      <c r="AA63">
+        <v>92.653999999999996</v>
+      </c>
+      <c r="AB63">
+        <v>199.6</v>
+      </c>
+      <c r="AC63">
+        <f t="shared" si="0"/>
+        <v>-2.2307692307692477</v>
+      </c>
+    </row>
+    <row r="64" spans="27:29" x14ac:dyDescent="0.25">
+      <c r="AA64">
+        <v>92.784000000000006</v>
+      </c>
+      <c r="AB64">
+        <v>199.29</v>
+      </c>
+      <c r="AC64">
+        <f t="shared" si="0"/>
+        <v>-2.3846153846152247</v>
+      </c>
+    </row>
+    <row r="65" spans="27:29" x14ac:dyDescent="0.25">
+      <c r="AA65">
+        <v>92.914000000000001</v>
+      </c>
+      <c r="AB65">
+        <v>198.98</v>
+      </c>
+      <c r="AC65">
+        <f t="shared" si="0"/>
+        <v>-2.3846153846154854</v>
+      </c>
+    </row>
+    <row r="66" spans="27:29" x14ac:dyDescent="0.25">
+      <c r="AA66">
+        <v>93.043999999999997</v>
+      </c>
+      <c r="AB66">
+        <v>198.67</v>
+      </c>
+      <c r="AC66">
+        <f t="shared" si="0"/>
+        <v>-2.3846153846154854</v>
+      </c>
+    </row>
+    <row r="67" spans="27:29" x14ac:dyDescent="0.25">
+      <c r="AA67">
+        <v>93.174000000000007</v>
+      </c>
+      <c r="AB67">
+        <v>198.35</v>
+      </c>
+      <c r="AC67">
+        <f t="shared" si="0"/>
+        <v>-2.4615384615382263</v>
+      </c>
+    </row>
+    <row r="68" spans="27:29" x14ac:dyDescent="0.25">
+      <c r="AA68">
+        <v>93.302999999999997</v>
+      </c>
+      <c r="AB68">
+        <v>198.04</v>
+      </c>
+      <c r="AC68">
+        <f t="shared" si="0"/>
+        <v>-2.4031007751939897</v>
+      </c>
+    </row>
+    <row r="69" spans="27:29" x14ac:dyDescent="0.25">
+      <c r="AA69">
+        <v>93.433000000000007</v>
+      </c>
+      <c r="AB69">
+        <v>197.72</v>
+      </c>
+      <c r="AC69">
+        <f t="shared" si="0"/>
+        <v>-2.4615384615382263</v>
+      </c>
+    </row>
+    <row r="70" spans="27:29" x14ac:dyDescent="0.25">
+      <c r="AA70">
+        <v>93.563000000000002</v>
+      </c>
+      <c r="AB70">
+        <v>197.41</v>
+      </c>
+      <c r="AC70">
+        <f t="shared" si="0"/>
+        <v>-2.3846153846154854</v>
+      </c>
+    </row>
+    <row r="71" spans="27:29" x14ac:dyDescent="0.25">
+      <c r="AA71">
+        <v>93.692999999999998</v>
+      </c>
+      <c r="AB71">
+        <v>197.11</v>
+      </c>
+      <c r="AC71">
+        <f t="shared" si="0"/>
+        <v>-2.3076923076922573</v>
+      </c>
+    </row>
+    <row r="72" spans="27:29" x14ac:dyDescent="0.25">
+      <c r="AA72">
+        <v>93.822999999999993</v>
+      </c>
+      <c r="AB72">
+        <v>196.81</v>
+      </c>
+      <c r="AC72">
+        <f t="shared" ref="AC72:AC119" si="1">(AB72-AB71)/(AA72-AA71)</f>
+        <v>-2.3076923076924758</v>
+      </c>
+    </row>
+    <row r="73" spans="27:29" x14ac:dyDescent="0.25">
+      <c r="AA73">
+        <v>93.951999999999998</v>
+      </c>
+      <c r="AB73">
+        <v>196.52</v>
+      </c>
+      <c r="AC73">
+        <f t="shared" si="1"/>
+        <v>-2.248062015503729</v>
+      </c>
+    </row>
+    <row r="74" spans="27:29" x14ac:dyDescent="0.25">
+      <c r="AA74">
+        <v>94.081999999999994</v>
+      </c>
+      <c r="AB74">
+        <v>196.22</v>
+      </c>
+      <c r="AC74">
+        <f t="shared" si="1"/>
+        <v>-2.3076923076924758</v>
+      </c>
+    </row>
+    <row r="75" spans="27:29" x14ac:dyDescent="0.25">
+      <c r="AA75">
+        <v>94.212000000000003</v>
+      </c>
+      <c r="AB75">
+        <v>195.93</v>
+      </c>
+      <c r="AC75">
+        <f t="shared" si="1"/>
+        <v>-2.2307692307690039</v>
+      </c>
+    </row>
+    <row r="76" spans="27:29" x14ac:dyDescent="0.25">
+      <c r="AA76">
+        <v>94.341999999999999</v>
+      </c>
+      <c r="AB76">
+        <v>195.64</v>
+      </c>
+      <c r="AC76">
+        <f t="shared" si="1"/>
+        <v>-2.2307692307694662</v>
+      </c>
+    </row>
+    <row r="77" spans="27:29" x14ac:dyDescent="0.25">
+      <c r="AA77">
+        <v>94.471999999999994</v>
+      </c>
+      <c r="AB77">
+        <v>195.35</v>
+      </c>
+      <c r="AC77">
+        <f t="shared" si="1"/>
+        <v>-2.2307692307692477</v>
+      </c>
+    </row>
+    <row r="78" spans="27:29" x14ac:dyDescent="0.25">
+      <c r="AA78">
+        <v>94.602000000000004</v>
+      </c>
+      <c r="AB78">
+        <v>195.05</v>
+      </c>
+      <c r="AC78">
+        <f t="shared" si="1"/>
+        <v>-2.3076923076920051</v>
+      </c>
+    </row>
+    <row r="79" spans="27:29" x14ac:dyDescent="0.25">
+      <c r="AA79">
+        <v>94.730999999999995</v>
+      </c>
+      <c r="AB79">
+        <v>194.74</v>
+      </c>
+      <c r="AC79">
+        <f t="shared" si="1"/>
+        <v>-2.4031007751939897</v>
+      </c>
+    </row>
+    <row r="80" spans="27:29" x14ac:dyDescent="0.25">
+      <c r="AA80">
+        <v>94.861000000000004</v>
+      </c>
+      <c r="AB80">
+        <v>194.42</v>
+      </c>
+      <c r="AC80">
+        <f t="shared" si="1"/>
+        <v>-2.4615384615384448</v>
+      </c>
+    </row>
+    <row r="81" spans="27:29" x14ac:dyDescent="0.25">
+      <c r="AA81">
+        <v>94.991</v>
+      </c>
+      <c r="AB81">
+        <v>194.09</v>
+      </c>
+      <c r="AC81">
+        <f t="shared" si="1"/>
+        <v>-2.538461538461505</v>
+      </c>
+    </row>
+    <row r="82" spans="27:29" x14ac:dyDescent="0.25">
+      <c r="AA82">
+        <v>95.120999999999995</v>
+      </c>
+      <c r="AB82">
+        <v>193.74</v>
+      </c>
+      <c r="AC82">
+        <f t="shared" si="1"/>
+        <v>-2.6923076923077427</v>
+      </c>
+    </row>
+    <row r="83" spans="27:29" x14ac:dyDescent="0.25">
+      <c r="AA83">
+        <v>95.251000000000005</v>
+      </c>
+      <c r="AB83">
+        <v>193.38</v>
+      </c>
+      <c r="AC83">
+        <f t="shared" si="1"/>
+        <v>-2.7692307692306684</v>
+      </c>
+    </row>
+    <row r="84" spans="27:29" x14ac:dyDescent="0.25">
+      <c r="AA84">
+        <v>95.38</v>
+      </c>
+      <c r="AB84">
+        <v>193</v>
+      </c>
+      <c r="AC84">
+        <f t="shared" si="1"/>
+        <v>-2.9457364341087047</v>
+      </c>
+    </row>
+    <row r="85" spans="27:29" x14ac:dyDescent="0.25">
+      <c r="AA85">
+        <v>95.51</v>
+      </c>
+      <c r="AB85">
+        <v>192.6</v>
+      </c>
+      <c r="AC85">
+        <f t="shared" si="1"/>
+        <v>-3.0769230769228919</v>
+      </c>
+    </row>
+    <row r="86" spans="27:29" x14ac:dyDescent="0.25">
+      <c r="AA86">
+        <v>95.64</v>
+      </c>
+      <c r="AB86">
+        <v>192.16</v>
+      </c>
+      <c r="AC86">
+        <f t="shared" si="1"/>
+        <v>-3.3846153846154854</v>
+      </c>
+    </row>
+    <row r="87" spans="27:29" x14ac:dyDescent="0.25">
+      <c r="AA87">
+        <v>95.77</v>
+      </c>
+      <c r="AB87">
+        <v>191.71</v>
+      </c>
+      <c r="AC87">
+        <f t="shared" si="1"/>
+        <v>-3.461538461538495</v>
+      </c>
+    </row>
+    <row r="88" spans="27:29" x14ac:dyDescent="0.25">
+      <c r="AA88">
+        <v>95.9</v>
+      </c>
+      <c r="AB88">
+        <v>191.22</v>
+      </c>
+      <c r="AC88">
+        <f t="shared" si="1"/>
+        <v>-3.7692307692305591</v>
+      </c>
+    </row>
+    <row r="89" spans="27:29" x14ac:dyDescent="0.25">
+      <c r="AA89">
+        <v>96.028999999999996</v>
+      </c>
+      <c r="AB89">
+        <v>190.71</v>
+      </c>
+      <c r="AC89">
+        <f t="shared" si="1"/>
+        <v>-3.9534883720932386</v>
+      </c>
+    </row>
+    <row r="90" spans="27:29" x14ac:dyDescent="0.25">
+      <c r="AA90">
+        <v>96.159000000000006</v>
+      </c>
+      <c r="AB90">
+        <v>190.18</v>
+      </c>
+      <c r="AC90">
+        <f t="shared" si="1"/>
+        <v>-4.0769230769227827</v>
+      </c>
+    </row>
+    <row r="91" spans="27:29" x14ac:dyDescent="0.25">
+      <c r="AA91">
+        <v>96.289000000000001</v>
+      </c>
+      <c r="AB91">
+        <v>189.61</v>
+      </c>
+      <c r="AC91">
+        <f t="shared" si="1"/>
+        <v>-4.3846153846154854</v>
+      </c>
+    </row>
+    <row r="92" spans="27:29" x14ac:dyDescent="0.25">
+      <c r="AA92">
+        <v>96.418999999999997</v>
+      </c>
+      <c r="AB92">
+        <v>189.02</v>
+      </c>
+      <c r="AC92">
+        <f t="shared" si="1"/>
+        <v>-4.5384615384617231</v>
+      </c>
+    </row>
+    <row r="93" spans="27:29" x14ac:dyDescent="0.25">
+      <c r="AA93">
+        <v>96.549000000000007</v>
+      </c>
+      <c r="AB93">
+        <v>188.41</v>
+      </c>
+      <c r="AC93">
+        <f t="shared" si="1"/>
+        <v>-4.6923076923074483</v>
+      </c>
+    </row>
+    <row r="94" spans="27:29" x14ac:dyDescent="0.25">
+      <c r="AA94">
+        <v>96.679000000000002</v>
+      </c>
+      <c r="AB94">
+        <v>187.79</v>
+      </c>
+      <c r="AC94">
+        <f t="shared" si="1"/>
+        <v>-4.7692307692309708</v>
+      </c>
+    </row>
+    <row r="95" spans="27:29" x14ac:dyDescent="0.25">
+      <c r="AA95">
+        <v>96.808000000000007</v>
+      </c>
+      <c r="AB95">
+        <v>187.16</v>
+      </c>
+      <c r="AC95">
+        <f t="shared" si="1"/>
+        <v>-4.8837209302323377</v>
+      </c>
+    </row>
+    <row r="96" spans="27:29" x14ac:dyDescent="0.25">
+      <c r="AA96">
+        <v>96.938000000000002</v>
+      </c>
+      <c r="AB96">
+        <v>186.53</v>
+      </c>
+      <c r="AC96">
+        <f t="shared" si="1"/>
+        <v>-4.8461538461539808</v>
+      </c>
+    </row>
+    <row r="97" spans="27:29" x14ac:dyDescent="0.25">
+      <c r="AA97">
+        <v>97.067999999999998</v>
+      </c>
+      <c r="AB97">
+        <v>185.92</v>
+      </c>
+      <c r="AC97">
+        <f t="shared" si="1"/>
+        <v>-4.6923076923079616</v>
+      </c>
+    </row>
+    <row r="98" spans="27:29" x14ac:dyDescent="0.25">
+      <c r="AA98">
+        <v>97.197999999999993</v>
+      </c>
+      <c r="AB98">
+        <v>185.33</v>
+      </c>
+      <c r="AC98">
+        <f t="shared" si="1"/>
+        <v>-4.5384615384615046</v>
+      </c>
+    </row>
+    <row r="99" spans="27:29" x14ac:dyDescent="0.25">
+      <c r="AA99">
+        <v>97.328000000000003</v>
+      </c>
+      <c r="AB99">
+        <v>184.76</v>
+      </c>
+      <c r="AC99">
+        <f t="shared" si="1"/>
+        <v>-4.3846153846152252</v>
+      </c>
+    </row>
+    <row r="100" spans="27:29" x14ac:dyDescent="0.25">
+      <c r="AA100">
+        <v>97.456999999999994</v>
+      </c>
+      <c r="AB100">
+        <v>184.21</v>
+      </c>
+      <c r="AC100">
+        <f t="shared" si="1"/>
+        <v>-4.2635658914730445</v>
+      </c>
+    </row>
+    <row r="101" spans="27:29" x14ac:dyDescent="0.25">
+      <c r="AA101">
+        <v>97.587000000000003</v>
+      </c>
+      <c r="AB101">
+        <v>183.7</v>
+      </c>
+      <c r="AC101">
+        <f t="shared" si="1"/>
+        <v>-3.9230769230767799</v>
+      </c>
+    </row>
+    <row r="102" spans="27:29" x14ac:dyDescent="0.25">
+      <c r="AA102">
+        <v>97.716999999999999</v>
+      </c>
+      <c r="AB102">
+        <v>183.22</v>
+      </c>
+      <c r="AC102">
+        <f t="shared" si="1"/>
+        <v>-3.6923076923077427</v>
+      </c>
+    </row>
+    <row r="103" spans="27:29" x14ac:dyDescent="0.25">
+      <c r="AA103">
+        <v>97.846999999999994</v>
+      </c>
+      <c r="AB103">
+        <v>182.79</v>
+      </c>
+      <c r="AC103">
+        <f t="shared" si="1"/>
+        <v>-3.3076923076924758</v>
+      </c>
+    </row>
+    <row r="104" spans="27:29" x14ac:dyDescent="0.25">
+      <c r="AA104">
+        <v>97.977000000000004</v>
+      </c>
+      <c r="AB104">
+        <v>182.39</v>
+      </c>
+      <c r="AC104">
+        <f t="shared" si="1"/>
+        <v>-3.0769230769228919</v>
+      </c>
+    </row>
+    <row r="105" spans="27:29" x14ac:dyDescent="0.25">
+      <c r="AA105">
+        <v>98.105999999999995</v>
+      </c>
+      <c r="AB105">
+        <v>182.03</v>
+      </c>
+      <c r="AC105">
+        <f t="shared" si="1"/>
+        <v>-2.7906976744186918</v>
+      </c>
+    </row>
+    <row r="106" spans="27:29" x14ac:dyDescent="0.25">
+      <c r="AA106">
+        <v>98.236000000000004</v>
+      </c>
+      <c r="AB106">
+        <v>181.72</v>
+      </c>
+      <c r="AC106">
+        <f t="shared" si="1"/>
+        <v>-2.3846153846152247</v>
+      </c>
+    </row>
+    <row r="107" spans="27:29" x14ac:dyDescent="0.25">
+      <c r="AA107">
+        <v>98.366</v>
+      </c>
+      <c r="AB107">
+        <v>181.44</v>
+      </c>
+      <c r="AC107">
+        <f t="shared" si="1"/>
+        <v>-2.1538461538462381</v>
+      </c>
+    </row>
+    <row r="108" spans="27:29" x14ac:dyDescent="0.25">
+      <c r="AA108">
+        <v>98.495999999999995</v>
+      </c>
+      <c r="AB108">
+        <v>181.21</v>
+      </c>
+      <c r="AC108">
+        <f t="shared" si="1"/>
+        <v>-1.7692307692307525</v>
+      </c>
+    </row>
+    <row r="109" spans="27:29" x14ac:dyDescent="0.25">
+      <c r="AA109">
+        <v>98.626000000000005</v>
+      </c>
+      <c r="AB109">
+        <v>181</v>
+      </c>
+      <c r="AC109">
+        <f t="shared" si="1"/>
+        <v>-1.6153846153845566</v>
+      </c>
+    </row>
+    <row r="110" spans="27:29" x14ac:dyDescent="0.25">
+      <c r="AA110">
+        <v>98.756</v>
+      </c>
+      <c r="AB110">
+        <v>180.83</v>
+      </c>
+      <c r="AC110">
+        <f t="shared" si="1"/>
+        <v>-1.3076923076922573</v>
+      </c>
+    </row>
+    <row r="111" spans="27:29" x14ac:dyDescent="0.25">
+      <c r="AA111">
+        <v>98.885000000000005</v>
+      </c>
+      <c r="AB111">
+        <v>180.66</v>
+      </c>
+      <c r="AC111">
+        <f t="shared" si="1"/>
+        <v>-1.3178294573644145</v>
+      </c>
+    </row>
+    <row r="112" spans="27:29" x14ac:dyDescent="0.25">
+      <c r="AA112">
+        <v>99.015000000000001</v>
+      </c>
+      <c r="AB112">
+        <v>180.5</v>
+      </c>
+      <c r="AC112">
+        <f t="shared" si="1"/>
+        <v>-1.2307692307692475</v>
+      </c>
+    </row>
+    <row r="113" spans="27:29" x14ac:dyDescent="0.25">
+      <c r="AA113">
+        <v>99.144999999999996</v>
+      </c>
+      <c r="AB113">
+        <v>180.34</v>
+      </c>
+      <c r="AC113">
+        <f t="shared" si="1"/>
+        <v>-1.2307692307692475</v>
+      </c>
+    </row>
+    <row r="114" spans="27:29" x14ac:dyDescent="0.25">
+      <c r="AA114">
+        <v>99.275000000000006</v>
+      </c>
+      <c r="AB114">
+        <v>180.17</v>
+      </c>
+      <c r="AC114">
+        <f t="shared" si="1"/>
+        <v>-1.307692307692333</v>
+      </c>
+    </row>
+    <row r="115" spans="27:29" x14ac:dyDescent="0.25">
+      <c r="AA115">
+        <v>99.405000000000001</v>
+      </c>
+      <c r="AB115">
+        <v>180.01</v>
+      </c>
+      <c r="AC115">
+        <f t="shared" si="1"/>
+        <v>-1.2307692307692475</v>
+      </c>
+    </row>
+    <row r="116" spans="27:29" x14ac:dyDescent="0.25">
+      <c r="AA116">
+        <v>99.534000000000006</v>
+      </c>
+      <c r="AB116">
+        <v>179.86</v>
+      </c>
+      <c r="AC116">
+        <f t="shared" si="1"/>
+        <v>-1.1627906976741982</v>
+      </c>
+    </row>
+    <row r="117" spans="27:29" x14ac:dyDescent="0.25">
+      <c r="AA117">
+        <v>99.664000000000001</v>
+      </c>
+      <c r="AB117">
+        <v>179.73</v>
+      </c>
+      <c r="AC117">
+        <f t="shared" si="1"/>
+        <v>-1.0000000000002187</v>
+      </c>
+    </row>
+    <row r="118" spans="27:29" x14ac:dyDescent="0.25">
+      <c r="AA118">
+        <v>99.793999999999997</v>
+      </c>
+      <c r="AB118">
+        <v>179.64</v>
+      </c>
+      <c r="AC118">
+        <f t="shared" si="1"/>
+        <v>-0.69230769230774281</v>
+      </c>
+    </row>
+    <row r="119" spans="27:29" x14ac:dyDescent="0.25">
+      <c r="AA119">
+        <v>99.924000000000007</v>
+      </c>
+      <c r="AB119">
+        <v>179.57</v>
+      </c>
+      <c r="AC119">
+        <f t="shared" si="1"/>
+        <v>-0.53846153846144595</v>
       </c>
     </row>
   </sheetData>
